--- a/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
+++ b/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_3624E1457CC03A060CF0EBF925186D8A6EDEBBA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C118033-974D-4693-BEAC-1F0461B66FBC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Learning Journals</t>
   </si>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
@@ -176,6 +177,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -223,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +260,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,6 +312,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,22 +504,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -518,16 +556,16 @@
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="F2" s="6">
-        <v>0.1690625</v>
+        <v>0.20906250000000001</v>
       </c>
       <c r="G2" s="6">
-        <v>6.8437499999999998E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.76249999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.17218749999999999</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.61875000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -548,7 +586,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -569,7 +607,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -590,7 +628,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -604,7 +642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -618,7 +656,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -632,7 +670,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -646,7 +684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -658,7 +696,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -669,7 +707,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -680,7 +718,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -694,7 +732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -708,7 +746,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -719,7 +757,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -733,7 +771,7 @@
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -747,7 +785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -761,7 +799,7 @@
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -775,7 +813,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -783,7 +821,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -797,22 +835,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -826,22 +870,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4">
+        <v>6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -855,22 +920,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -884,22 +949,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -913,7 +978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -929,24 +994,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
+++ b/BSc Computer Science/1st Year (10x Subjects R20000) 25%/2nd Term/MATH1280 Introduction to Statistics (proctored)/Grade Calculations.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24822"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_3624E1457CC03A060CF0EBF925186D8A6EDEBBA7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C118033-974D-4693-BEAC-1F0461B66FBC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E8E2E60-2F23-4C91-890D-6E3EEB86C7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,95 +12,157 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>Learning Journals</t>
   </si>
   <si>
+    <t>Total Gain</t>
+  </si>
+  <si>
+    <t>Total Loss</t>
+  </si>
+  <si>
+    <t>Total Waiting</t>
+  </si>
+  <si>
     <t>Discussion Assignments</t>
   </si>
   <si>
+    <t>35.213%</t>
+  </si>
+  <si>
+    <t>24.787%</t>
+  </si>
+  <si>
+    <t>Written Assignments</t>
+  </si>
+  <si>
+    <t>Absolute Minimum</t>
+  </si>
+  <si>
     <t>Graded Quizzes</t>
   </si>
   <si>
+    <t>Lowest Grade</t>
+  </si>
+  <si>
     <t>Final Exam</t>
   </si>
   <si>
+    <t>Highest Loss</t>
+  </si>
+  <si>
     <t>Unit 1</t>
   </si>
   <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
     <t>Discussion Assignment</t>
   </si>
   <si>
+    <t>0.5625%</t>
+  </si>
+  <si>
+    <t>1.75%</t>
+  </si>
+  <si>
     <t>Unit 2</t>
   </si>
   <si>
+    <t>0.625%</t>
+  </si>
+  <si>
     <t>Learning Journal</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Written Assignment</t>
   </si>
   <si>
     <t>Unit 3</t>
   </si>
   <si>
+    <t>2.5%</t>
+  </si>
+  <si>
     <t>Graded Quiz</t>
   </si>
   <si>
+    <t>8.125%</t>
+  </si>
+  <si>
     <t>Unit 4</t>
   </si>
   <si>
+    <t>0.5%</t>
+  </si>
+  <si>
+    <t>2.25%</t>
+  </si>
+  <si>
+    <t>72.04%</t>
+  </si>
+  <si>
+    <t>0.9005%</t>
+  </si>
+  <si>
+    <t>0.3495%</t>
+  </si>
+  <si>
     <t>Unit 5</t>
   </si>
   <si>
+    <t>0.59375%</t>
+  </si>
+  <si>
+    <t>0.03125%</t>
+  </si>
+  <si>
+    <t>0.25%</t>
+  </si>
+  <si>
     <t>Unit 6</t>
   </si>
   <si>
     <t>Unit 7</t>
   </si>
   <si>
+    <t>0.0625%</t>
+  </si>
+  <si>
+    <t>1.25%</t>
+  </si>
+  <si>
     <t>Unit 8</t>
   </si>
   <si>
     <t>Unit 9</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Gain</t>
-  </si>
-  <si>
-    <t>Loss</t>
-  </si>
-  <si>
-    <t>Total Gain</t>
-  </si>
-  <si>
-    <t>Total Loss</t>
-  </si>
-  <si>
-    <t>Total Waiting</t>
-  </si>
-  <si>
-    <t>Lowest Grade</t>
-  </si>
-  <si>
-    <t>Highest Loss</t>
-  </si>
-  <si>
-    <t>Absolute Minimum</t>
-  </si>
-  <si>
-    <t>Written Assignments</t>
   </si>
 </sst>
 </file>
@@ -113,7 +175,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,19 +569,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -533,18 +595,18 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -555,19 +617,19 @@
       <c r="D2" s="4">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="F2" s="6">
-        <v>0.20906250000000001</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.17218749999999999</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.61875000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -579,16 +641,16 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="1">
         <v>0.64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -600,16 +662,16 @@
         <v>0.1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="1">
         <v>0.73</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -621,120 +683,120 @@
         <v>0.4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="1">
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
         <v>0.9</v>
       </c>
-      <c r="C8" s="5">
-        <v>5.6249999999999998E-3</v>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="5">
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1">
         <v>0.7</v>
       </c>
-      <c r="C9" s="2">
-        <v>1.7500000000000002E-2</v>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="10">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="4">
-        <v>6.2500000000000003E-3</v>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>0.95</v>
@@ -746,155 +808,180 @@
         <v>3.1250000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>0.8125</v>
       </c>
-      <c r="C19" s="4">
-        <v>8.1250000000000003E-2</v>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="4">
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8">
         <v>0.8</v>
       </c>
-      <c r="C22" s="9">
-        <v>5.0000000000000001E-3</v>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="D22" s="11">
         <v>1.25E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B23" s="8">
         <v>0.9</v>
       </c>
-      <c r="C23" s="10">
-        <v>2.2499999999999999E-2</v>
+      <c r="C23" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D23" s="10">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D32" s="4">
         <v>6.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1">
         <v>0.4</v>
@@ -906,82 +993,129 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
       <c r="D41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
         <v>16</v>
       </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -999,7 +1133,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1011,7 +1145,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
